--- a/02.팀원관리/00.프로젝트평가/2023_상반기/개발사업부_인력 평가_2023_상반기_HMGICS 디지털거점 시스템구축 프로젝트.xlsx
+++ b/02.팀원관리/00.프로젝트평가/2023_상반기/개발사업부_인력 평가_2023_상반기_HMGICS 디지털거점 시스템구축 프로젝트.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="45">
   <si>
     <t>프로젝트 투입 인력 평가</t>
   </si>
@@ -182,6 +182,34 @@
     <t>1. 작년 한해 많은 인정을 받아서 우수 사원 및 주임으로 특진까지 한 그 자세 그대로 HMGICS 프로젝트 성공적인 마무리에 이바지 하였음.
 2. 프로젝트 최종 마무리 단계에서는 김정은 과장과 같이 싱가폴 출장을 통해 지원하였고, 현지 현업, 현지 유관업체 담당자와도 좋은 관계를 맺을 정도로 영업적인 마인드도 뛰어남.
 3. 이후 채널 통합 추가 프로젝트 (7월 ~ ) 에 대한 사전 준비, HMGICS 운영에 대한 부분까지 문제 없이 잘 진행하고 있음.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>박운용</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>길민정</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2023/01/01 ~ 2023/03/20</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2023/01/01 ~ 2023/02/24</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">1. 프로젝트 종료시까지 WAS단의 서버 AA역할을 잘 마무리 하였음. 아무 문제가 없어서 오히려 업무 강도는 그리 높지 않았음. 
+2. 여유 있는 부분을 아모레퍼시픽 오설록 프로젝트 지원, 두레농협 오픈 지원 등 타 프로젝트에 지원 역할도 충실히 진행하였음.
+3. 본인의 스킬을 전파하고 후배 양성에 대한 노력을 좀 더 해주었으면 함. </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. BO에서 홈페이지 부문으로 파트 전환을 하였고 홈페이지 부문의 PL이 프로젝트 철수 일정에 따라 철수한 이후 홈페이지 부분의 PL 역할까지 잘 수행하였음. 
+2. 리더가 업무의 한계를 제한하지 않고 동기부여를 통해 지속적인 Challanging을 하고 방향성에 대해 제시를 하면 잘 따라옴. 다만, 그렇지 않은 관리자가 그냥 놓아 두면 스스로 뭔가를 찾아서 하는 부분은 좀 아쉬움이 있음.
+3. 파이팅 넘치고, 고객 친화적이고, 분위기 메이커 역할을 잘하고 일 외적으로 두루 두루 장점이 있는 직원으로 앞에서 잘 끌어주고 성장할 수 있도록 지속적인 관심을 가지고 조언을 하면 훌륭한 직원으로 성장할 수 있는 잠재력은 많이 있다고 판단됨.</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -498,7 +526,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="33">
+  <borders count="35">
     <border>
       <left/>
       <right/>
@@ -898,6 +926,26 @@
       <bottom style="medium">
         <color indexed="64"/>
       </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
@@ -1055,7 +1103,7 @@
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1067,9 +1115,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
@@ -1096,9 +1141,6 @@
     </xf>
     <xf numFmtId="0" fontId="32" fillId="0" borderId="28" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1161,15 +1203,6 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1220,6 +1253,12 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="30" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="33" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="34" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="88">
@@ -1588,11 +1627,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N10"/>
+  <dimension ref="A1:N11"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M13" sqref="M13"/>
+      <pane ySplit="6" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="N12" sqref="N12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.19921875" defaultRowHeight="17.399999999999999"/>
@@ -1610,11 +1649,11 @@
   <sheetData>
     <row r="1" spans="1:14" ht="6.6" customHeight="1" thickBot="1">
       <c r="A1" s="1"/>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="6"/>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="5"/>
       <c r="G1" s="4"/>
       <c r="H1" s="4"/>
       <c r="I1" s="4"/>
@@ -1626,165 +1665,165 @@
     </row>
     <row r="2" spans="1:14">
       <c r="A2" s="1"/>
-      <c r="B2" s="40" t="s">
+      <c r="B2" s="35" t="s">
         <v>32</v>
       </c>
-      <c r="C2" s="41"/>
-      <c r="D2" s="41"/>
-      <c r="E2" s="42"/>
-      <c r="F2" s="31" t="s">
+      <c r="C2" s="36"/>
+      <c r="D2" s="36"/>
+      <c r="E2" s="37"/>
+      <c r="F2" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="G2" s="32"/>
-      <c r="H2" s="32"/>
-      <c r="I2" s="32"/>
-      <c r="J2" s="32"/>
-      <c r="K2" s="32"/>
-      <c r="L2" s="32"/>
-      <c r="M2" s="32"/>
-      <c r="N2" s="33"/>
+      <c r="G2" s="30"/>
+      <c r="H2" s="30"/>
+      <c r="I2" s="30"/>
+      <c r="J2" s="30"/>
+      <c r="K2" s="30"/>
+      <c r="L2" s="30"/>
+      <c r="M2" s="30"/>
+      <c r="N2" s="31"/>
     </row>
     <row r="3" spans="1:14">
       <c r="A3" s="1"/>
-      <c r="B3" s="43"/>
-      <c r="C3" s="44"/>
-      <c r="D3" s="44"/>
-      <c r="E3" s="45"/>
-      <c r="F3" s="7" t="s">
+      <c r="B3" s="38"/>
+      <c r="C3" s="39"/>
+      <c r="D3" s="39"/>
+      <c r="E3" s="40"/>
+      <c r="F3" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="G3" s="34" t="s">
+      <c r="G3" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="H3" s="34"/>
-      <c r="I3" s="34"/>
-      <c r="J3" s="34" t="s">
+      <c r="H3" s="32"/>
+      <c r="I3" s="32"/>
+      <c r="J3" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="K3" s="34"/>
-      <c r="L3" s="34"/>
-      <c r="M3" s="34"/>
-      <c r="N3" s="55" t="s">
+      <c r="K3" s="32"/>
+      <c r="L3" s="32"/>
+      <c r="M3" s="32"/>
+      <c r="N3" s="50" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:14">
       <c r="A4" s="1"/>
-      <c r="B4" s="46"/>
-      <c r="C4" s="47"/>
-      <c r="D4" s="47"/>
-      <c r="E4" s="48"/>
-      <c r="F4" s="35" t="s">
+      <c r="B4" s="41"/>
+      <c r="C4" s="42"/>
+      <c r="D4" s="42"/>
+      <c r="E4" s="43"/>
+      <c r="F4" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="G4" s="8" t="s">
+      <c r="G4" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="H4" s="8" t="s">
+      <c r="H4" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="I4" s="8" t="s">
+      <c r="I4" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="J4" s="8" t="s">
+      <c r="J4" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="K4" s="8" t="s">
+      <c r="K4" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="L4" s="8" t="s">
+      <c r="L4" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="M4" s="8" t="s">
+      <c r="M4" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="N4" s="56"/>
+      <c r="N4" s="51"/>
     </row>
     <row r="5" spans="1:14" ht="43.2">
       <c r="A5" s="1"/>
-      <c r="B5" s="49" t="s">
+      <c r="B5" s="44" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="51" t="s">
+      <c r="C5" s="46" t="s">
         <v>31</v>
       </c>
-      <c r="D5" s="51" t="s">
+      <c r="D5" s="46" t="s">
         <v>14</v>
       </c>
-      <c r="E5" s="53" t="s">
+      <c r="E5" s="48" t="s">
         <v>15</v>
       </c>
-      <c r="F5" s="35"/>
-      <c r="G5" s="9" t="s">
+      <c r="F5" s="33"/>
+      <c r="G5" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="H5" s="9" t="s">
+      <c r="H5" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="I5" s="9" t="s">
+      <c r="I5" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="J5" s="9" t="s">
+      <c r="J5" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="K5" s="9" t="s">
+      <c r="K5" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="L5" s="9" t="s">
+      <c r="L5" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="M5" s="9" t="s">
+      <c r="M5" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="N5" s="10" t="s">
+      <c r="N5" s="9" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:14" ht="18" thickBot="1">
       <c r="A6" s="1"/>
-      <c r="B6" s="50"/>
-      <c r="C6" s="52"/>
-      <c r="D6" s="52"/>
-      <c r="E6" s="54"/>
-      <c r="F6" s="36"/>
-      <c r="G6" s="30" t="s">
+      <c r="B6" s="45"/>
+      <c r="C6" s="47"/>
+      <c r="D6" s="47"/>
+      <c r="E6" s="49"/>
+      <c r="F6" s="34"/>
+      <c r="G6" s="28" t="s">
         <v>24</v>
       </c>
-      <c r="H6" s="30" t="s">
+      <c r="H6" s="28" t="s">
         <v>24</v>
       </c>
-      <c r="I6" s="30" t="s">
+      <c r="I6" s="28" t="s">
         <v>24</v>
       </c>
-      <c r="J6" s="30" t="s">
+      <c r="J6" s="28" t="s">
         <v>24</v>
       </c>
-      <c r="K6" s="30" t="s">
+      <c r="K6" s="28" t="s">
         <v>24</v>
       </c>
-      <c r="L6" s="30" t="s">
+      <c r="L6" s="28" t="s">
         <v>25</v>
       </c>
-      <c r="M6" s="30" t="s">
+      <c r="M6" s="28" t="s">
         <v>26</v>
       </c>
-      <c r="N6" s="14"/>
+      <c r="N6" s="13"/>
     </row>
     <row r="7" spans="1:14" ht="29.4" customHeight="1">
       <c r="A7" s="1"/>
-      <c r="B7" s="37" t="s">
+      <c r="B7" s="52" t="s">
         <v>35</v>
       </c>
-      <c r="C7" s="12" t="s">
+      <c r="C7" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="D7" s="13" t="s">
+      <c r="D7" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="E7" s="19">
+      <c r="E7" s="17">
         <v>0</v>
       </c>
-      <c r="F7" s="16" t="s">
+      <c r="F7" s="14" t="s">
         <v>28</v>
       </c>
       <c r="G7" s="3"/>
@@ -1794,104 +1833,168 @@
       <c r="K7" s="3"/>
       <c r="L7" s="3"/>
       <c r="M7" s="3"/>
-      <c r="N7" s="17"/>
+      <c r="N7" s="15"/>
     </row>
-    <row r="8" spans="1:14" s="20" customFormat="1" ht="158.4" customHeight="1">
-      <c r="B8" s="38"/>
-      <c r="C8" s="24" t="s">
+    <row r="8" spans="1:14" s="18" customFormat="1" ht="158.4" customHeight="1">
+      <c r="B8" s="53"/>
+      <c r="C8" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="D8" s="21" t="s">
+      <c r="D8" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="E8" s="27">
+      <c r="E8" s="25">
         <f t="shared" ref="E8:E9" si="0">SUM(G8:M8)</f>
         <v>29.3</v>
       </c>
-      <c r="F8" s="22" t="s">
+      <c r="F8" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="G8" s="23">
+      <c r="G8" s="21">
         <v>4.5</v>
       </c>
-      <c r="H8" s="23">
+      <c r="H8" s="21">
         <v>5</v>
       </c>
-      <c r="I8" s="23">
+      <c r="I8" s="21">
         <v>5</v>
       </c>
-      <c r="J8" s="23">
+      <c r="J8" s="21">
         <v>5</v>
       </c>
-      <c r="K8" s="23">
+      <c r="K8" s="21">
         <v>5</v>
       </c>
-      <c r="L8" s="23">
+      <c r="L8" s="21">
         <v>2.8</v>
       </c>
-      <c r="M8" s="23">
+      <c r="M8" s="21">
         <v>2</v>
       </c>
-      <c r="N8" s="11" t="s">
+      <c r="N8" s="10" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="9" spans="1:14" ht="167.4" customHeight="1" thickBot="1">
       <c r="A9" s="1"/>
-      <c r="B9" s="39"/>
-      <c r="C9" s="25" t="s">
+      <c r="B9" s="53"/>
+      <c r="C9" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="D9" s="21" t="s">
+      <c r="D9" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="E9" s="28">
+      <c r="E9" s="26">
         <f t="shared" si="0"/>
         <v>28.3</v>
       </c>
-      <c r="F9" s="26" t="s">
+      <c r="F9" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="G9" s="29">
+      <c r="G9" s="27">
         <v>4.5</v>
       </c>
-      <c r="H9" s="29">
+      <c r="H9" s="27">
         <v>5</v>
       </c>
-      <c r="I9" s="29">
+      <c r="I9" s="27">
         <v>5</v>
       </c>
-      <c r="J9" s="29">
+      <c r="J9" s="27">
         <v>4.5</v>
       </c>
-      <c r="K9" s="29">
+      <c r="K9" s="27">
         <v>4.5</v>
       </c>
-      <c r="L9" s="29">
+      <c r="L9" s="27">
         <v>2.8</v>
       </c>
-      <c r="M9" s="29">
+      <c r="M9" s="27">
         <v>2</v>
       </c>
-      <c r="N9" s="14" t="s">
+      <c r="N9" s="13" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="10" spans="1:14" ht="7.5" customHeight="1">
-      <c r="A10" s="1"/>
-      <c r="B10" s="5"/>
-      <c r="C10" s="5"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="15"/>
-      <c r="F10" s="5"/>
-      <c r="G10" s="4"/>
-      <c r="H10" s="4"/>
-      <c r="I10" s="4"/>
-      <c r="J10" s="4"/>
-      <c r="K10" s="4"/>
-      <c r="L10" s="4"/>
-      <c r="M10" s="4"/>
-      <c r="N10" s="4"/>
+    <row r="10" spans="1:14" s="18" customFormat="1" ht="158.4" customHeight="1">
+      <c r="B10" s="53"/>
+      <c r="C10" s="22" t="s">
+        <v>39</v>
+      </c>
+      <c r="D10" s="19" t="s">
+        <v>42</v>
+      </c>
+      <c r="E10" s="25">
+        <f t="shared" ref="E10:E11" si="1">SUM(G10:M10)</f>
+        <v>26.8</v>
+      </c>
+      <c r="F10" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="G10" s="21">
+        <v>4</v>
+      </c>
+      <c r="H10" s="21">
+        <v>4</v>
+      </c>
+      <c r="I10" s="21">
+        <v>4</v>
+      </c>
+      <c r="J10" s="21">
+        <v>5</v>
+      </c>
+      <c r="K10" s="21">
+        <v>5</v>
+      </c>
+      <c r="L10" s="21">
+        <v>2.8</v>
+      </c>
+      <c r="M10" s="21">
+        <v>2</v>
+      </c>
+      <c r="N10" s="10" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" s="18" customFormat="1" ht="167.4" customHeight="1" thickBot="1">
+      <c r="B11" s="53"/>
+      <c r="C11" s="23" t="s">
+        <v>40</v>
+      </c>
+      <c r="D11" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="E11" s="26">
+        <f t="shared" si="1"/>
+        <v>25.8</v>
+      </c>
+      <c r="F11" s="24" t="s">
+        <v>30</v>
+      </c>
+      <c r="G11" s="27">
+        <v>4</v>
+      </c>
+      <c r="H11" s="27">
+        <v>4</v>
+      </c>
+      <c r="I11" s="27">
+        <v>4</v>
+      </c>
+      <c r="J11" s="27">
+        <v>4.5</v>
+      </c>
+      <c r="K11" s="27">
+        <v>4.5</v>
+      </c>
+      <c r="L11" s="27">
+        <v>2.8</v>
+      </c>
+      <c r="M11" s="27">
+        <v>2</v>
+      </c>
+      <c r="N11" s="13" t="s">
+        <v>44</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -1899,13 +2002,13 @@
     <mergeCell ref="G3:I3"/>
     <mergeCell ref="J3:M3"/>
     <mergeCell ref="F4:F6"/>
-    <mergeCell ref="B7:B9"/>
     <mergeCell ref="B2:E4"/>
     <mergeCell ref="B5:B6"/>
     <mergeCell ref="C5:C6"/>
     <mergeCell ref="D5:D6"/>
     <mergeCell ref="E5:E6"/>
     <mergeCell ref="N3:N4"/>
+    <mergeCell ref="B7:B11"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
